--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,7 +860,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -871,13 +871,13 @@
         <v>254</v>
       </c>
       <c r="D2" t="n">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F2" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -899,13 +899,13 @@
         <v>254</v>
       </c>
       <c r="D3" t="n">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -955,13 +955,13 @@
         <v>254</v>
       </c>
       <c r="D5" t="n">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -983,13 +983,13 @@
         <v>254</v>
       </c>
       <c r="D6" t="n">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F6" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1011,13 +1011,13 @@
         <v>375</v>
       </c>
       <c r="D7" t="n">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G7" t="n">
         <v>27</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D8" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1067,13 +1067,13 @@
         <v>375</v>
       </c>
       <c r="D9" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G9" t="n">
         <v>27</v>
@@ -1084,27 +1084,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>375</v>
+        <v>152</v>
       </c>
       <c r="D10" t="n">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="E10" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1123,13 +1123,13 @@
         <v>375</v>
       </c>
       <c r="D11" t="n">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="E11" t="n">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F11" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G11" t="n">
         <v>27</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1151,13 +1151,13 @@
         <v>37</v>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
         <v>10</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D14" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1224,18 +1224,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D16" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1364,24 +1364,24 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1476,24 +1476,24 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>244</v>
       </c>
       <c r="D24" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1543,13 +1543,13 @@
         <v>244</v>
       </c>
       <c r="D26" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1588,24 +1588,24 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>244</v>
       </c>
       <c r="D28" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         <v>244</v>
       </c>
       <c r="D30" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1700,24 +1700,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>244</v>
       </c>
       <c r="D32" t="n">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1767,13 +1767,13 @@
         <v>244</v>
       </c>
       <c r="D34" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1812,24 +1812,24 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>244</v>
       </c>
       <c r="D36" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1924,11 +1924,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1952,7 +1952,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1963,13 +1963,13 @@
         <v>244</v>
       </c>
       <c r="D41" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1991,13 +1991,13 @@
         <v>37</v>
       </c>
       <c r="D42" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
         <v>10</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2036,27 +2036,27 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="D44" t="n">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2100,19 +2100,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="D46" t="n">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="E46" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F46" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2131,13 +2131,13 @@
         <v>37</v>
       </c>
       <c r="D47" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
         <v>10</v>
@@ -2148,27 +2148,27 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="D48" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2187,13 +2187,13 @@
         <v>37</v>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G49" t="n">
         <v>10</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D50" t="n">
         <v>3</v>
@@ -2227,12 +2227,12 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2240,19 +2240,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="D51" t="n">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="E51" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F51" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2260,35 +2260,35 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>287</v>
+        <v>104</v>
       </c>
       <c r="D52" t="n">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F52" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2327,13 +2327,13 @@
         <v>372</v>
       </c>
       <c r="D54" t="n">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E54" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F54" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D55" t="n">
         <v>3</v>
@@ -2367,29 +2367,29 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="E56" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F56" t="n">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2408,27 +2408,27 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
         <v>70</v>
       </c>
       <c r="F57" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2467,13 +2467,13 @@
         <v>372</v>
       </c>
       <c r="D59" t="n">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E59" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F59" t="n">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2484,24 +2484,24 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45846</v>
+        <v>45864</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="D60" t="n">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="F60" t="n">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2523,13 +2523,13 @@
         <v>372</v>
       </c>
       <c r="D61" t="n">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="E61" t="n">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F61" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45847</v>
+        <v>45865</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45846</v>
+        <v>45863</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2591,34 +2591,6 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>163</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>160</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -807,7 +807,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
@@ -821,8 +821,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -830,8 +830,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -839,8 +839,8 @@
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1008,152 +1008,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>40</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1170,157 +1170,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>275</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>268</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>51</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1332,144 +1332,144 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>28-July-2025</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
       <c r="AF4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1494,152 +1494,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>28-July-2025</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1654,154 +1654,138 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v/>
+      </c>
+      <c r="B6" t="n">
+        <v/>
+      </c>
+      <c r="C6" t="n">
+        <v/>
+      </c>
+      <c r="D6" t="n">
+        <v/>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>13</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1842,112 +1826,112 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>21</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1988,112 +1972,112 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>21</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2134,112 +2118,112 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>28</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2280,112 +2264,112 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2426,117 +2410,117 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2572,117 +2556,117 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2718,122 +2702,122 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>287</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2864,114 +2848,114 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>139</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="AH14" t="inlineStr">
         <is>
           <t>0</t>
@@ -2979,7 +2963,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3010,112 +2994,112 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>166</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>159</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3154,109 +3138,93 @@
       <c r="H16" t="n">
         <v/>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v/>
+      </c>
+      <c r="M16" t="n">
+        <v/>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v/>
+      </c>
+      <c r="P16" t="n">
+        <v/>
+      </c>
+      <c r="Q16" t="n">
+        <v/>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="n">
-        <v/>
-      </c>
-      <c r="U16" t="n">
-        <v/>
-      </c>
-      <c r="V16" t="n">
-        <v/>
-      </c>
-      <c r="W16" t="n">
-        <v/>
-      </c>
-      <c r="X16" t="n">
-        <v/>
-      </c>
-      <c r="Y16" t="n">
-        <v/>
-      </c>
-      <c r="Z16" t="n">
-        <v/>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="n">
+        <v/>
+      </c>
+      <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
+        <v/>
+      </c>
+      <c r="AF16" t="n">
+        <v/>
+      </c>
+      <c r="AG16" t="n">
+        <v/>
+      </c>
+      <c r="AH16" t="n">
+        <v/>
+      </c>
+      <c r="AI16" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AR16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,8 +806,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
@@ -821,8 +821,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -830,8 +830,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -839,8 +839,17 @@
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="14" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1004,164 +1013,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1170,160 +1259,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>275</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>268</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1332,160 +1461,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1494,160 +1663,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1680,120 +1889,160 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1826,120 +2075,160 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1972,120 +2261,160 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2118,120 +2447,160 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2264,120 +2633,160 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2410,120 +2819,160 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2556,120 +3005,160 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2702,120 +3191,160 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2848,120 +3377,160 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>139</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2994,120 +3563,160 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>166</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3138,92 +3747,132 @@
       <c r="H16" t="n">
         <v/>
       </c>
-      <c r="J16" t="n">
-        <v/>
-      </c>
-      <c r="K16" t="n">
-        <v/>
-      </c>
-      <c r="L16" t="n">
-        <v/>
-      </c>
-      <c r="M16" t="n">
-        <v/>
-      </c>
-      <c r="N16" t="n">
-        <v/>
-      </c>
-      <c r="O16" t="n">
-        <v/>
-      </c>
-      <c r="P16" t="n">
-        <v/>
-      </c>
-      <c r="Q16" t="n">
-        <v/>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v/>
+      </c>
+      <c r="V16" t="n">
+        <v/>
+      </c>
+      <c r="W16" t="n">
+        <v/>
+      </c>
+      <c r="X16" t="n">
+        <v/>
+      </c>
+      <c r="Y16" t="n">
+        <v/>
+      </c>
+      <c r="Z16" t="n">
+        <v/>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="n">
-        <v/>
-      </c>
-      <c r="AC16" t="n">
-        <v/>
-      </c>
-      <c r="AD16" t="n">
-        <v/>
-      </c>
-      <c r="AE16" t="n">
-        <v/>
-      </c>
-      <c r="AF16" t="n">
-        <v/>
-      </c>
-      <c r="AG16" t="n">
-        <v/>
-      </c>
-      <c r="AH16" t="n">
-        <v/>
-      </c>
-      <c r="AI16" t="n">
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK16" t="n">
+        <v/>
+      </c>
+      <c r="AL16" t="n">
+        <v/>
+      </c>
+      <c r="AM16" t="n">
+        <v/>
+      </c>
+      <c r="AN16" t="n">
+        <v/>
+      </c>
+      <c r="AO16" t="n">
+        <v/>
+      </c>
+      <c r="AP16" t="n">
+        <v/>
+      </c>
+      <c r="AQ16" t="n">
+        <v/>
+      </c>
+      <c r="AR16" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR16"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
@@ -815,7 +815,7 @@
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
@@ -830,8 +830,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -839,17 +839,8 @@
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="14" customWidth="1" min="37" max="37"/>
-    <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1013,244 +1004,164 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1259,200 +1170,160 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>275</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>152</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>101</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1461,142 +1332,142 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1611,50 +1482,10 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1663,152 +1494,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>244</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>216</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1817,46 +1648,6 @@
         </is>
       </c>
       <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1889,112 +1680,112 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -2003,46 +1794,6 @@
         </is>
       </c>
       <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2075,112 +1826,112 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2189,46 +1940,6 @@
         </is>
       </c>
       <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2261,112 +1972,112 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2375,46 +2086,6 @@
         </is>
       </c>
       <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2447,160 +2118,120 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2633,109 +2264,109 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="AG10" t="inlineStr">
         <is>
           <t>28</t>
@@ -2747,46 +2378,6 @@
         </is>
       </c>
       <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2819,160 +2410,120 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3005,160 +2556,120 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>65</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3191,160 +2702,120 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>104</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3377,112 +2848,112 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3491,46 +2962,6 @@
         </is>
       </c>
       <c r="AI14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3563,74 +2994,74 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>89</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>174</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="Y15" t="inlineStr">
         <is>
           <t>0</t>
@@ -3641,85 +3072,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -3749,130 +3124,106 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="n">
-        <v/>
-      </c>
-      <c r="U16" t="n">
-        <v/>
-      </c>
-      <c r="V16" t="n">
-        <v/>
-      </c>
-      <c r="W16" t="n">
-        <v/>
-      </c>
-      <c r="X16" t="n">
-        <v/>
-      </c>
-      <c r="Y16" t="n">
-        <v/>
-      </c>
-      <c r="Z16" t="n">
-        <v/>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK16" t="n">
-        <v/>
-      </c>
-      <c r="AL16" t="n">
-        <v/>
-      </c>
-      <c r="AM16" t="n">
-        <v/>
-      </c>
-      <c r="AN16" t="n">
-        <v/>
-      </c>
-      <c r="AO16" t="n">
-        <v/>
-      </c>
-      <c r="AP16" t="n">
-        <v/>
-      </c>
-      <c r="AQ16" t="n">
-        <v/>
-      </c>
-      <c r="AR16" t="n">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="n">
+        <v/>
+      </c>
+      <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
+        <v/>
+      </c>
+      <c r="AF16" t="n">
+        <v/>
+      </c>
+      <c r="AG16" t="n">
+        <v/>
+      </c>
+      <c r="AH16" t="n">
+        <v/>
+      </c>
+      <c r="AI16" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -824,7 +824,7 @@
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
@@ -839,8 +839,8 @@
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1008,152 +1008,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>62</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>64</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1170,157 +1170,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>265</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>298</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>51</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1332,157 +1332,157 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1494,152 +1494,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1680,112 +1680,112 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>21</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1826,112 +1826,112 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1972,112 +1972,112 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2118,92 +2118,92 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2264,112 +2264,112 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2410,117 +2410,117 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2556,117 +2556,117 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2702,122 +2702,122 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2848,122 +2848,122 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2994,107 +2994,123 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>198</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>130</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>89</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>174</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="n">
-        <v/>
-      </c>
-      <c r="AC15" t="n">
-        <v/>
-      </c>
-      <c r="AD15" t="n">
-        <v/>
-      </c>
-      <c r="AE15" t="n">
-        <v/>
-      </c>
-      <c r="AF15" t="n">
-        <v/>
-      </c>
-      <c r="AG15" t="n">
-        <v/>
-      </c>
-      <c r="AH15" t="n">
-        <v/>
-      </c>
-      <c r="AI15" t="n">
-        <v/>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -3124,107 +3140,123 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="n">
-        <v/>
-      </c>
-      <c r="AC16" t="n">
-        <v/>
-      </c>
-      <c r="AD16" t="n">
-        <v/>
-      </c>
-      <c r="AE16" t="n">
-        <v/>
-      </c>
-      <c r="AF16" t="n">
-        <v/>
-      </c>
-      <c r="AG16" t="n">
-        <v/>
-      </c>
-      <c r="AH16" t="n">
-        <v/>
-      </c>
-      <c r="AI16" t="n">
-        <v/>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -807,7 +807,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
@@ -833,7 +833,7 @@
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="14" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
@@ -1008,152 +1008,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>42</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>62</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1170,152 +1170,152 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>265</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>298</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>38</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>45</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1332,127 +1332,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1494,127 +1494,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1654,113 +1654,129 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v/>
-      </c>
-      <c r="B6" t="n">
-        <v/>
-      </c>
-      <c r="C6" t="n">
-        <v/>
-      </c>
-      <c r="D6" t="n">
-        <v/>
-      </c>
-      <c r="E6" t="n">
-        <v/>
-      </c>
-      <c r="F6" t="n">
-        <v/>
-      </c>
-      <c r="G6" t="n">
-        <v/>
-      </c>
-      <c r="H6" t="n">
-        <v/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1826,87 +1842,87 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1972,87 +1988,87 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2118,87 +2134,87 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2264,87 +2280,87 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2410,87 +2426,87 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2556,112 +2572,112 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -2702,112 +2718,112 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>11</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -2848,87 +2864,87 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2994,112 +3010,112 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>198</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>130</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>174</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3140,87 +3156,87 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -506,6 +506,56 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>330</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>352</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -798,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +857,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
@@ -1008,127 +1058,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1170,152 +1220,152 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>252</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>265</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>42</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>298</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>38</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1332,127 +1382,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1494,127 +1544,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1656,152 +1706,152 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>21</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1842,87 +1892,87 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1988,87 +2038,87 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2134,87 +2184,87 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2280,112 +2330,112 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>28</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2426,112 +2476,112 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2572,87 +2622,87 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2718,112 +2768,112 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -2864,87 +2914,87 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -3010,112 +3060,112 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>155</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>163</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>130</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3156,120 +3206,412 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v/>
+      </c>
+      <c r="B17" t="n">
+        <v/>
+      </c>
+      <c r="C17" t="n">
+        <v/>
+      </c>
+      <c r="D17" t="n">
+        <v/>
+      </c>
+      <c r="E17" t="n">
+        <v/>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+      <c r="G17" t="n">
+        <v/>
+      </c>
+      <c r="H17" t="n">
+        <v/>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v/>
+      </c>
+      <c r="B18" t="n">
+        <v/>
+      </c>
+      <c r="C18" t="n">
+        <v/>
+      </c>
+      <c r="D18" t="n">
+        <v/>
+      </c>
+      <c r="E18" t="n">
+        <v/>
+      </c>
+      <c r="F18" t="n">
+        <v/>
+      </c>
+      <c r="G18" t="n">
+        <v/>
+      </c>
+      <c r="H18" t="n">
+        <v/>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -848,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AR18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,6 +891,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1054,164 +1063,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1220,160 +1309,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>252</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>265</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1382,160 +1511,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1544,160 +1713,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1706,160 +1915,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1892,120 +2141,160 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2038,120 +2327,160 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2184,120 +2513,160 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2330,120 +2699,160 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2476,120 +2885,160 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2622,120 +3071,160 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2768,120 +3257,160 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2914,120 +3443,160 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3060,120 +3629,160 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>177</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>155</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3206,120 +3815,160 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3352,120 +4001,160 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3498,120 +4187,160 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -848,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR18"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,8 +871,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -891,15 +891,6 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="16" customWidth="1" min="37" max="37"/>
-    <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1063,244 +1054,164 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1309,200 +1220,160 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>265</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1511,200 +1382,160 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1713,144 +1544,144 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="AF5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1867,46 +1698,6 @@
         </is>
       </c>
       <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1915,386 +1706,322 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v/>
-      </c>
-      <c r="B7" t="n">
-        <v/>
-      </c>
-      <c r="C7" t="n">
-        <v/>
-      </c>
-      <c r="D7" t="n">
-        <v/>
-      </c>
-      <c r="E7" t="n">
-        <v/>
-      </c>
-      <c r="F7" t="n">
-        <v/>
-      </c>
-      <c r="G7" t="n">
-        <v/>
-      </c>
-      <c r="H7" t="n">
-        <v/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="AH7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2327,160 +2054,120 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2513,160 +2200,120 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2699,160 +2346,120 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
       <c r="AH10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2885,160 +2492,120 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="AH11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3071,160 +2638,120 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3257,160 +2784,120 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3443,160 +2930,120 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="AH14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3629,160 +3076,120 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>177</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
       <c r="AH15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3815,160 +3222,120 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AH16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4001,160 +3368,120 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AH17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4185,162 +3512,106 @@
       <c r="H18" t="n">
         <v/>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
+        <v/>
+      </c>
+      <c r="L18" t="n">
+        <v/>
+      </c>
+      <c r="M18" t="n">
+        <v/>
+      </c>
+      <c r="N18" t="n">
+        <v/>
+      </c>
+      <c r="O18" t="n">
+        <v/>
+      </c>
+      <c r="P18" t="n">
+        <v/>
+      </c>
+      <c r="Q18" t="n">
+        <v/>
+      </c>
+      <c r="S18" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>05-August-2025</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR18" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -871,8 +871,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -880,8 +880,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -1058,152 +1058,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>42</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>40</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1220,152 +1220,152 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>269</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>305</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>31</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1382,127 +1382,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1544,127 +1544,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1706,152 +1706,152 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>21</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1868,127 +1868,127 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -2054,112 +2054,112 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>21</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2200,87 +2200,87 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2346,112 +2346,112 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2492,87 +2492,87 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2638,112 +2638,112 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -2784,87 +2784,87 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2930,87 +2930,87 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>149</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -3076,112 +3076,112 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>156</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>143</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3222,87 +3222,87 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -3368,87 +3368,87 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3512,73 +3512,73 @@
       <c r="H18" t="n">
         <v/>
       </c>
-      <c r="J18" t="n">
-        <v/>
-      </c>
-      <c r="K18" t="n">
-        <v/>
-      </c>
-      <c r="L18" t="n">
-        <v/>
-      </c>
-      <c r="M18" t="n">
-        <v/>
-      </c>
-      <c r="N18" t="n">
-        <v/>
-      </c>
-      <c r="O18" t="n">
-        <v/>
-      </c>
-      <c r="P18" t="n">
-        <v/>
-      </c>
-      <c r="Q18" t="n">
-        <v/>
-      </c>
-      <c r="S18" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v/>
+      </c>
+      <c r="T18" t="n">
+        <v/>
+      </c>
+      <c r="U18" t="n">
+        <v/>
+      </c>
+      <c r="V18" t="n">
+        <v/>
+      </c>
+      <c r="W18" t="n">
+        <v/>
+      </c>
+      <c r="X18" t="n">
+        <v/>
+      </c>
+      <c r="Y18" t="n">
+        <v/>
+      </c>
+      <c r="Z18" t="n">
+        <v/>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -880,8 +880,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -889,8 +889,8 @@
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1058,152 +1058,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>64</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1220,157 +1220,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>249</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>269</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>51</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1382,144 +1382,144 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
       <c r="AF4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1544,152 +1544,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>21</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1706,152 +1706,152 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>13</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>21</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1868,152 +1868,152 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2054,112 +2054,112 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2200,92 +2200,92 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2346,92 +2346,92 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2492,117 +2492,117 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2638,117 +2638,117 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2784,122 +2784,122 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2930,114 +2930,114 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>149</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="AH14" t="inlineStr">
         <is>
           <t>0</t>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3076,112 +3076,112 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>180</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>156</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3222,112 +3222,112 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -3368,112 +3368,112 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -3514,107 +3514,107 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v/>
-      </c>
-      <c r="T18" t="n">
-        <v/>
-      </c>
-      <c r="U18" t="n">
-        <v/>
-      </c>
-      <c r="V18" t="n">
-        <v/>
-      </c>
-      <c r="W18" t="n">
-        <v/>
-      </c>
-      <c r="X18" t="n">
-        <v/>
-      </c>
-      <c r="Y18" t="n">
-        <v/>
-      </c>
-      <c r="Z18" t="n">
-        <v/>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v/>
+      </c>
+      <c r="AC18" t="n">
+        <v/>
+      </c>
+      <c r="AD18" t="n">
+        <v/>
+      </c>
+      <c r="AE18" t="n">
+        <v/>
+      </c>
+      <c r="AF18" t="n">
+        <v/>
+      </c>
+      <c r="AG18" t="n">
+        <v/>
+      </c>
+      <c r="AH18" t="n">
+        <v/>
+      </c>
+      <c r="AI18" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -889,8 +889,8 @@
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1058,152 +1058,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>62</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>64</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1220,157 +1220,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>242</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>249</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>269</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>51</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1382,157 +1382,157 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1544,152 +1544,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1706,152 +1706,152 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1868,152 +1868,152 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2028,138 +2028,154 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v/>
-      </c>
-      <c r="B8" t="n">
-        <v/>
-      </c>
-      <c r="C8" t="n">
-        <v/>
-      </c>
-      <c r="D8" t="n">
-        <v/>
-      </c>
-      <c r="E8" t="n">
-        <v/>
-      </c>
-      <c r="F8" t="n">
-        <v/>
-      </c>
-      <c r="G8" t="n">
-        <v/>
-      </c>
-      <c r="H8" t="n">
-        <v/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>21</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2200,92 +2216,92 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2346,112 +2362,112 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>28</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2492,117 +2508,117 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2638,117 +2654,117 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2784,122 +2800,122 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2930,122 +2946,122 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -3076,112 +3092,112 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>180</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>145</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3222,112 +3238,112 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -3368,112 +3384,112 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -3514,107 +3530,123 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB18" t="n">
-        <v/>
-      </c>
-      <c r="AC18" t="n">
-        <v/>
-      </c>
-      <c r="AD18" t="n">
-        <v/>
-      </c>
-      <c r="AE18" t="n">
-        <v/>
-      </c>
-      <c r="AF18" t="n">
-        <v/>
-      </c>
-      <c r="AG18" t="n">
-        <v/>
-      </c>
-      <c r="AH18" t="n">
-        <v/>
-      </c>
-      <c r="AI18" t="n">
-        <v/>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -848,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AR18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,7 +857,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
@@ -891,6 +891,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1054,164 +1063,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1220,160 +1309,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>256</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>242</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>249</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>269</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1382,160 +1511,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1544,160 +1713,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1706,160 +1915,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1868,160 +2117,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2030,1474 +2319,2018 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v/>
-      </c>
-      <c r="B9" t="n">
-        <v/>
-      </c>
-      <c r="C9" t="n">
-        <v/>
-      </c>
-      <c r="D9" t="n">
-        <v/>
-      </c>
-      <c r="E9" t="n">
-        <v/>
-      </c>
-      <c r="F9" t="n">
-        <v/>
-      </c>
-      <c r="G9" t="n">
-        <v/>
-      </c>
-      <c r="H9" t="n">
-        <v/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v/>
-      </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-      <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-      <c r="G10" t="n">
-        <v/>
-      </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v/>
-      </c>
-      <c r="B11" t="n">
-        <v/>
-      </c>
-      <c r="C11" t="n">
-        <v/>
-      </c>
-      <c r="D11" t="n">
-        <v/>
-      </c>
-      <c r="E11" t="n">
-        <v/>
-      </c>
-      <c r="F11" t="n">
-        <v/>
-      </c>
-      <c r="G11" t="n">
-        <v/>
-      </c>
-      <c r="H11" t="n">
-        <v/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v/>
-      </c>
-      <c r="B12" t="n">
-        <v/>
-      </c>
-      <c r="C12" t="n">
-        <v/>
-      </c>
-      <c r="D12" t="n">
-        <v/>
-      </c>
-      <c r="E12" t="n">
-        <v/>
-      </c>
-      <c r="F12" t="n">
-        <v/>
-      </c>
-      <c r="G12" t="n">
-        <v/>
-      </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v/>
-      </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
-      <c r="D13" t="n">
-        <v/>
-      </c>
-      <c r="E13" t="n">
-        <v/>
-      </c>
-      <c r="F13" t="n">
-        <v/>
-      </c>
-      <c r="G13" t="n">
-        <v/>
-      </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>483</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v/>
-      </c>
-      <c r="B14" t="n">
-        <v/>
-      </c>
-      <c r="C14" t="n">
-        <v/>
-      </c>
-      <c r="D14" t="n">
-        <v/>
-      </c>
-      <c r="E14" t="n">
-        <v/>
-      </c>
-      <c r="F14" t="n">
-        <v/>
-      </c>
-      <c r="G14" t="n">
-        <v/>
-      </c>
-      <c r="H14" t="n">
-        <v/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v/>
-      </c>
-      <c r="B15" t="n">
-        <v/>
-      </c>
-      <c r="C15" t="n">
-        <v/>
-      </c>
-      <c r="D15" t="n">
-        <v/>
-      </c>
-      <c r="E15" t="n">
-        <v/>
-      </c>
-      <c r="F15" t="n">
-        <v/>
-      </c>
-      <c r="G15" t="n">
-        <v/>
-      </c>
-      <c r="H15" t="n">
-        <v/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>151</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>131</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>180</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v/>
-      </c>
-      <c r="B16" t="n">
-        <v/>
-      </c>
-      <c r="C16" t="n">
-        <v/>
-      </c>
-      <c r="D16" t="n">
-        <v/>
-      </c>
-      <c r="E16" t="n">
-        <v/>
-      </c>
-      <c r="F16" t="n">
-        <v/>
-      </c>
-      <c r="G16" t="n">
-        <v/>
-      </c>
-      <c r="H16" t="n">
-        <v/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v/>
-      </c>
-      <c r="B17" t="n">
-        <v/>
-      </c>
-      <c r="C17" t="n">
-        <v/>
-      </c>
-      <c r="D17" t="n">
-        <v/>
-      </c>
-      <c r="E17" t="n">
-        <v/>
-      </c>
-      <c r="F17" t="n">
-        <v/>
-      </c>
-      <c r="G17" t="n">
-        <v/>
-      </c>
-      <c r="H17" t="n">
-        <v/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3530,120 +4363,160 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -848,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR18"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,15 +891,6 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="16" customWidth="1" min="37" max="37"/>
-    <col width="16" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1063,244 +1054,164 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1309,200 +1220,160 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>256</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1511,200 +1382,160 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1713,144 +1544,144 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="AF5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1867,46 +1698,6 @@
         </is>
       </c>
       <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1915,149 +1706,149 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="AG6" t="inlineStr">
         <is>
           <t>20</t>
@@ -2069,46 +1860,6 @@
         </is>
       </c>
       <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2117,200 +1868,160 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="AH7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2319,200 +2030,160 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2521,200 +2192,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2723,200 +2354,160 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
       <c r="AH10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2925,149 +2516,149 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="AG11" t="inlineStr">
         <is>
           <t>27</t>
@@ -3079,46 +2670,6 @@
         </is>
       </c>
       <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3127,200 +2678,160 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3329,402 +2840,322 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="AH14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3733,200 +3164,160 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>151</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
       <c r="AH15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3935,200 +3326,160 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="AH16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4137,200 +3488,160 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="AH17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4363,160 +3674,120 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR18" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -862,8 +862,8 @@
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -3169,27 +3169,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>372</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>126</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>167</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3331,22 +3331,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3493,27 +3493,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>residentui</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -3648,29 +3648,45 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v/>
-      </c>
-      <c r="B18" t="n">
-        <v/>
-      </c>
-      <c r="C18" t="n">
-        <v/>
-      </c>
-      <c r="D18" t="n">
-        <v/>
-      </c>
-      <c r="E18" t="n">
-        <v/>
-      </c>
-      <c r="F18" t="n">
-        <v/>
-      </c>
-      <c r="G18" t="n">
-        <v/>
-      </c>
-      <c r="H18" t="n">
-        <v/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>18-August-2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -862,8 +862,8 @@
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -884,13 +884,13 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1058,152 +1058,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>62</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>64</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1220,157 +1220,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>274</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1382,157 +1382,157 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1544,152 +1544,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>372</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>119</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>163</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1706,152 +1706,152 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>163</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1868,152 +1868,152 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2030,152 +2030,152 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2192,114 +2192,114 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2310,158 +2310,142 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2472,158 +2456,142 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="Y11" t="inlineStr">
         <is>
           <t>0</t>
@@ -2634,644 +2602,580 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="Z12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>483</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>483</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>126</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>167</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>165</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
       <c r="Y15" t="inlineStr">
         <is>
           <t>0</t>
@@ -3282,158 +3186,142 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="Y16" t="inlineStr">
         <is>
           <t>0</t>
@@ -3444,158 +3332,142 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="n">
+        <v/>
+      </c>
+      <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
+        <v/>
+      </c>
+      <c r="AF16" t="n">
+        <v/>
+      </c>
+      <c r="AG16" t="n">
+        <v/>
+      </c>
+      <c r="AH16" t="n">
+        <v/>
+      </c>
+      <c r="AI16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="Y17" t="inlineStr">
         <is>
           <t>0</t>
@@ -3606,158 +3478,126 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB17" t="n">
+        <v/>
+      </c>
+      <c r="AC17" t="n">
+        <v/>
+      </c>
+      <c r="AD17" t="n">
+        <v/>
+      </c>
+      <c r="AE17" t="n">
+        <v/>
+      </c>
+      <c r="AF17" t="n">
+        <v/>
+      </c>
+      <c r="AG17" t="n">
+        <v/>
+      </c>
+      <c r="AH17" t="n">
+        <v/>
+      </c>
+      <c r="AI17" t="n">
+        <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v/>
+      </c>
+      <c r="B18" t="n">
+        <v/>
+      </c>
+      <c r="C18" t="n">
+        <v/>
+      </c>
+      <c r="D18" t="n">
+        <v/>
+      </c>
+      <c r="E18" t="n">
+        <v/>
+      </c>
+      <c r="F18" t="n">
+        <v/>
+      </c>
+      <c r="G18" t="n">
+        <v/>
+      </c>
+      <c r="H18" t="n">
+        <v/>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="Y18" t="inlineStr">
         <is>
           <t>0</t>
@@ -3768,45 +3608,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB18" t="n">
+        <v/>
+      </c>
+      <c r="AC18" t="n">
+        <v/>
+      </c>
+      <c r="AD18" t="n">
+        <v/>
+      </c>
+      <c r="AE18" t="n">
+        <v/>
+      </c>
+      <c r="AF18" t="n">
+        <v/>
+      </c>
+      <c r="AG18" t="n">
+        <v/>
+      </c>
+      <c r="AH18" t="n">
+        <v/>
+      </c>
+      <c r="AI18" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -1058,152 +1058,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>40</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>62</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1220,127 +1220,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>274</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1382,129 +1382,129 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>mimoto</t>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1544,129 +1544,129 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>15-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1679,17 +1679,17 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>159</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>165</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1706,127 +1706,127 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1868,127 +1868,127 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -2030,127 +2030,127 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2192,112 +2192,112 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2338,87 +2338,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2484,112 +2484,112 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>28</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2630,112 +2630,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>8</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2776,87 +2776,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>483</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2922,87 +2922,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -3068,112 +3068,112 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>126</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>167</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>165</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3214,87 +3214,87 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3360,112 +3360,112 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3530,47 +3530,47 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -884,13 +884,13 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1058,152 +1058,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>42</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>40</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1220,157 +1220,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>243</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>274</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1382,157 +1382,157 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1544,152 +1544,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1706,152 +1706,152 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1868,152 +1868,152 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2030,152 +2030,152 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>15-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2192,1315 +2192,1459 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>127</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>149</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>126</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>167</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="n">
-        <v/>
-      </c>
-      <c r="AC15" t="n">
-        <v/>
-      </c>
-      <c r="AD15" t="n">
-        <v/>
-      </c>
-      <c r="AE15" t="n">
-        <v/>
-      </c>
-      <c r="AF15" t="n">
-        <v/>
-      </c>
-      <c r="AG15" t="n">
-        <v/>
-      </c>
-      <c r="AH15" t="n">
-        <v/>
-      </c>
-      <c r="AI15" t="n">
-        <v/>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="n">
-        <v/>
-      </c>
-      <c r="AC16" t="n">
-        <v/>
-      </c>
-      <c r="AD16" t="n">
-        <v/>
-      </c>
-      <c r="AE16" t="n">
-        <v/>
-      </c>
-      <c r="AF16" t="n">
-        <v/>
-      </c>
-      <c r="AG16" t="n">
-        <v/>
-      </c>
-      <c r="AH16" t="n">
-        <v/>
-      </c>
-      <c r="AI16" t="n">
-        <v/>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="n">
-        <v/>
-      </c>
-      <c r="AC17" t="n">
-        <v/>
-      </c>
-      <c r="AD17" t="n">
-        <v/>
-      </c>
-      <c r="AE17" t="n">
-        <v/>
-      </c>
-      <c r="AF17" t="n">
-        <v/>
-      </c>
-      <c r="AG17" t="n">
-        <v/>
-      </c>
-      <c r="AH17" t="n">
-        <v/>
-      </c>
-      <c r="AI17" t="n">
-        <v/>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -3530,107 +3674,123 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB18" t="n">
-        <v/>
-      </c>
-      <c r="AC18" t="n">
-        <v/>
-      </c>
-      <c r="AD18" t="n">
-        <v/>
-      </c>
-      <c r="AE18" t="n">
-        <v/>
-      </c>
-      <c r="AF18" t="n">
-        <v/>
-      </c>
-      <c r="AG18" t="n">
-        <v/>
-      </c>
-      <c r="AH18" t="n">
-        <v/>
-      </c>
-      <c r="AI18" t="n">
-        <v/>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -848,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AR18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,6 +891,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1054,164 +1063,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1220,160 +1309,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>263</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>243</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>272</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>274</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1382,160 +1511,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1544,160 +1713,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1706,160 +1915,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1868,160 +2117,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2030,160 +2319,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2192,160 +2521,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2354,160 +2723,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2516,160 +2925,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2678,160 +3127,200 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2840,160 +3329,200 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -3002,160 +3531,200 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3164,160 +3733,200 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>125</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>82</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>165</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>127</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>149</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>126</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>167</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3326,160 +3935,200 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3488,160 +4137,200 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3674,120 +4363,160 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -1058,127 +1058,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1220,127 +1220,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>293</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>290</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1382,129 +1382,129 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>mimoto</t>
@@ -1517,17 +1517,17 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1544,129 +1544,129 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1679,17 +1679,17 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>161</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>156</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1706,127 +1706,127 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1868,127 +1868,127 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -2030,127 +2030,127 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>20-August-2025</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2192,87 +2192,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2338,112 +2338,112 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>28</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2484,87 +2484,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2630,112 +2630,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2776,87 +2776,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>483</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2922,87 +2922,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -3068,112 +3068,112 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>138</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>75</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>159</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>156</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3214,87 +3214,87 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3360,112 +3360,112 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3530,47 +3530,47 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>25-August-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -1058,152 +1058,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>40</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>64</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1220,127 +1220,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>278</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>293</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>290</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1382,129 +1382,129 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>mimoto</t>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1544,129 +1544,129 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1679,17 +1679,17 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>138</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>159</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1706,127 +1706,127 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1868,129 +1868,129 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
           <t>adminui</t>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2030,127 +2030,127 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>21-August-2025</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2192,112 +2192,112 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>28</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2338,112 +2338,112 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2484,87 +2484,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2630,112 +2630,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2776,87 +2776,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>483</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2922,87 +2922,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -3068,112 +3068,112 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>151</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>159</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3214,87 +3214,87 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3360,112 +3360,112 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3530,47 +3530,47 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -884,13 +884,13 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1058,127 +1058,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1220,157 +1220,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>297</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>278</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>293</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1382,157 +1382,157 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1544,152 +1544,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1706,152 +1706,152 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1868,152 +1868,152 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2030,152 +2030,152 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2192,1315 +2192,1459 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>136</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>151</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="n">
-        <v/>
-      </c>
-      <c r="AC15" t="n">
-        <v/>
-      </c>
-      <c r="AD15" t="n">
-        <v/>
-      </c>
-      <c r="AE15" t="n">
-        <v/>
-      </c>
-      <c r="AF15" t="n">
-        <v/>
-      </c>
-      <c r="AG15" t="n">
-        <v/>
-      </c>
-      <c r="AH15" t="n">
-        <v/>
-      </c>
-      <c r="AI15" t="n">
-        <v/>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="n">
-        <v/>
-      </c>
-      <c r="AC16" t="n">
-        <v/>
-      </c>
-      <c r="AD16" t="n">
-        <v/>
-      </c>
-      <c r="AE16" t="n">
-        <v/>
-      </c>
-      <c r="AF16" t="n">
-        <v/>
-      </c>
-      <c r="AG16" t="n">
-        <v/>
-      </c>
-      <c r="AH16" t="n">
-        <v/>
-      </c>
-      <c r="AI16" t="n">
-        <v/>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="n">
-        <v/>
-      </c>
-      <c r="AC17" t="n">
-        <v/>
-      </c>
-      <c r="AD17" t="n">
-        <v/>
-      </c>
-      <c r="AE17" t="n">
-        <v/>
-      </c>
-      <c r="AF17" t="n">
-        <v/>
-      </c>
-      <c r="AG17" t="n">
-        <v/>
-      </c>
-      <c r="AH17" t="n">
-        <v/>
-      </c>
-      <c r="AI17" t="n">
-        <v/>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -3530,107 +3674,123 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB18" t="n">
-        <v/>
-      </c>
-      <c r="AC18" t="n">
-        <v/>
-      </c>
-      <c r="AD18" t="n">
-        <v/>
-      </c>
-      <c r="AE18" t="n">
-        <v/>
-      </c>
-      <c r="AF18" t="n">
-        <v/>
-      </c>
-      <c r="AG18" t="n">
-        <v/>
-      </c>
-      <c r="AH18" t="n">
-        <v/>
-      </c>
-      <c r="AI18" t="n">
-        <v/>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -848,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AR18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,8 +871,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -891,6 +891,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1054,164 +1063,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1220,160 +1309,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>279</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>297</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>278</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>293</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1382,160 +1511,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1544,160 +1713,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1706,160 +1915,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1868,160 +2117,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2030,160 +2319,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2192,160 +2521,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2354,160 +2723,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2516,160 +2925,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2678,160 +3127,200 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2840,160 +3329,200 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -3002,160 +3531,200 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3164,160 +3733,200 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>82</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>136</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>151</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3326,160 +3935,200 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3488,160 +4137,200 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3672,122 +4361,146 @@
       <c r="H18" t="n">
         <v/>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
+        <v/>
+      </c>
+      <c r="L18" t="n">
+        <v/>
+      </c>
+      <c r="M18" t="n">
+        <v/>
+      </c>
+      <c r="N18" t="n">
+        <v/>
+      </c>
+      <c r="O18" t="n">
+        <v/>
+      </c>
+      <c r="P18" t="n">
+        <v/>
+      </c>
+      <c r="Q18" t="n">
+        <v/>
+      </c>
+      <c r="S18" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -865,7 +865,7 @@
     <col width="5" customWidth="1" min="7" max="7"/>
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
@@ -880,8 +880,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
@@ -1058,152 +1058,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>42</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>64</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1220,127 +1220,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>259</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>268</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>279</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1382,127 +1382,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1544,152 +1544,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>163</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1706,152 +1706,152 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1868,152 +1868,152 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2030,114 +2030,114 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2148,131 +2148,115 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2338,112 +2322,112 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2484,87 +2468,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2630,122 +2614,122 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AB12" t="n">
@@ -2776,87 +2760,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>483</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2922,87 +2906,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -3068,112 +3052,112 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>152</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3214,112 +3198,112 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -3360,112 +3344,112 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -3530,67 +3514,83 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v/>
-      </c>
-      <c r="T18" t="n">
-        <v/>
-      </c>
-      <c r="U18" t="n">
-        <v/>
-      </c>
-      <c r="V18" t="n">
-        <v/>
-      </c>
-      <c r="W18" t="n">
-        <v/>
-      </c>
-      <c r="X18" t="n">
-        <v/>
-      </c>
-      <c r="Y18" t="n">
-        <v/>
-      </c>
-      <c r="Z18" t="n">
-        <v/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB18" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -874,7 +874,7 @@
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
@@ -1058,152 +1058,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>40</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1220,127 +1220,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>276</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>259</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>268</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1382,129 +1382,129 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>mimoto</t>
@@ -1517,179 +1517,179 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>372</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>162</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>152</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1706,152 +1706,152 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>163</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1868,152 +1868,152 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>residentui</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2030,233 +2030,249 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2322,87 +2338,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2468,87 +2484,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2614,112 +2630,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2760,87 +2776,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>483</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2906,87 +2922,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -3052,112 +3068,112 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>171</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>157</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>152</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3198,87 +3214,87 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3344,87 +3360,87 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -3514,47 +3530,47 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -883,14 +883,14 @@
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1058,152 +1058,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>62</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>40</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1220,157 +1220,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>309</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>276</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>259</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1382,314 +1382,314 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1706,152 +1706,152 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1868,152 +1868,152 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2030,152 +2030,152 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2192,1315 +2192,1459 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>102</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>171</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>171</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="n">
-        <v/>
-      </c>
-      <c r="AC15" t="n">
-        <v/>
-      </c>
-      <c r="AD15" t="n">
-        <v/>
-      </c>
-      <c r="AE15" t="n">
-        <v/>
-      </c>
-      <c r="AF15" t="n">
-        <v/>
-      </c>
-      <c r="AG15" t="n">
-        <v/>
-      </c>
-      <c r="AH15" t="n">
-        <v/>
-      </c>
-      <c r="AI15" t="n">
-        <v/>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="n">
-        <v/>
-      </c>
-      <c r="AC16" t="n">
-        <v/>
-      </c>
-      <c r="AD16" t="n">
-        <v/>
-      </c>
-      <c r="AE16" t="n">
-        <v/>
-      </c>
-      <c r="AF16" t="n">
-        <v/>
-      </c>
-      <c r="AG16" t="n">
-        <v/>
-      </c>
-      <c r="AH16" t="n">
-        <v/>
-      </c>
-      <c r="AI16" t="n">
-        <v/>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="n">
-        <v/>
-      </c>
-      <c r="AC17" t="n">
-        <v/>
-      </c>
-      <c r="AD17" t="n">
-        <v/>
-      </c>
-      <c r="AE17" t="n">
-        <v/>
-      </c>
-      <c r="AF17" t="n">
-        <v/>
-      </c>
-      <c r="AG17" t="n">
-        <v/>
-      </c>
-      <c r="AH17" t="n">
-        <v/>
-      </c>
-      <c r="AI17" t="n">
-        <v/>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -3530,107 +3674,123 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB18" t="n">
-        <v/>
-      </c>
-      <c r="AC18" t="n">
-        <v/>
-      </c>
-      <c r="AD18" t="n">
-        <v/>
-      </c>
-      <c r="AE18" t="n">
-        <v/>
-      </c>
-      <c r="AF18" t="n">
-        <v/>
-      </c>
-      <c r="AG18" t="n">
-        <v/>
-      </c>
-      <c r="AH18" t="n">
-        <v/>
-      </c>
-      <c r="AI18" t="n">
-        <v/>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -848,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AR18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,6 +891,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1054,164 +1063,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>140</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>184</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1220,160 +1309,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>284</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>309</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>276</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>259</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1382,160 +1511,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1544,160 +1713,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1706,160 +1915,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1868,160 +2117,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2030,160 +2319,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2192,160 +2521,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2354,160 +2723,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2516,160 +2925,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2678,160 +3127,200 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -2840,160 +3329,200 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>480</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -3002,160 +3531,200 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3164,160 +3733,200 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>115</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>95</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>162</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>102</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>99</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>171</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>171</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3326,160 +3935,200 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>163</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3488,160 +4137,200 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3674,120 +4363,160 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -1058,152 +1058,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>62</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1220,127 +1220,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>269</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1382,129 +1382,129 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>mimoto</t>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1544,129 +1544,129 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1679,17 +1679,17 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>118</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>85</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>169</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1706,127 +1706,127 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1868,127 +1868,127 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -2030,127 +2030,127 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2192,87 +2192,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2338,87 +2338,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2484,87 +2484,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2630,112 +2630,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>11</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2776,104 +2776,104 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>483</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
       <c r="W13" t="inlineStr">
         <is>
           <t>0</t>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2922,87 +2922,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -3068,112 +3068,112 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>372</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>84</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>177</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>169</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3214,87 +3214,87 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3360,87 +3360,87 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -3530,47 +3530,47 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">

--- a/minio-report-tracker/xlxs/collab.xlsx
+++ b/minio-report-tracker/xlxs/collab.xlsx
@@ -1058,152 +1058,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>254</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>40</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>62</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1220,127 +1220,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>esignet</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>221</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>esignet</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>375</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>esignet</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1382,129 +1382,129 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>mimoto</t>
@@ -1517,17 +1517,17 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>11</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1544,129 +1544,129 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>injiverify</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>injiverify</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1679,17 +1679,17 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>111</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>177</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1706,127 +1706,127 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1868,127 +1868,127 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>224</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -2030,127 +2030,127 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2192,87 +2192,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2338,87 +2338,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2484,87 +2484,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2630,112 +2630,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r=